--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value578.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value578.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.870963630539063</v>
+        <v>1.122973918914795</v>
       </c>
       <c r="B1">
-        <v>2.414528855101929</v>
+        <v>2.113569021224976</v>
       </c>
       <c r="C1">
-        <v>2.471850166466614</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>0.996985576075136</v>
+        <v>2.224819183349609</v>
       </c>
       <c r="E1">
-        <v>0.7173280077853653</v>
+        <v>1.096145868301392</v>
       </c>
     </row>
   </sheetData>
